--- a/电影.xlsx
+++ b/电影.xlsx
@@ -361,7 +361,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>1975967人评价</t>
+          <t>2040900人评价</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -383,7 +383,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1461845人评价</t>
+          <t>1512393人评价</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -405,7 +405,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1498520人评价</t>
+          <t>1544171人评价</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -427,7 +427,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1692357人评价</t>
+          <t>1736273人评价</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>945463人评价</t>
+          <t>970147人评价</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1446399人评价</t>
+          <t>1495368人评价</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1546820人评价</t>
+          <t>1600222人评价</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -515,7 +515,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>764489人评价</t>
+          <t>787041人评价</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1436713人评价</t>
+          <t>1476464人评价</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>994261人评价</t>
+          <t>1025878人评价</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1196598人评价</t>
+          <t>1230934人评价</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1060487人评价</t>
+          <t>1100443人评价</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1327357人评价</t>
+          <t>1369065人评价</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>947655人评价</t>
+          <t>972330人评价</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>923895人评价</t>
+          <t>952479人评价</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1067373人评价</t>
+          <t>1102925人评价</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1045933人评价</t>
+          <t>1081171人评价</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>643239人评价</t>
+          <t>666175人评价</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1244785人评价</t>
+          <t>1290888人评价</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>851644人评价</t>
+          <t>881248人评价</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>889435人评价</t>
+          <t>915337人评价</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>650068人评价</t>
+          <t>669061人评价</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1062116人评价</t>
+          <t>1093095人评价</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1231653人评价</t>
+          <t>1274327人评价</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>694130人评价</t>
+          <t>715296人评价</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>715185人评价</t>
+          <t>736553人评价</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>272295人评价</t>
+          <t>287312人评价</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>553686人评价</t>
+          <t>572819人评价</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>475121人评价</t>
+          <t>490216人评价</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1037383人评价</t>
+          <t>1076693人评价</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>494378人评价</t>
+          <t>519200人评价</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1083175人评价</t>
+          <t>1120783人评价</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>524884人评价</t>
+          <t>542489人评价</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1082,12 +1082,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>少年派的奇幻漂流</t>
+          <t>何以为家</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1006102人评价</t>
+          <t>659409人评价</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1097,19 +1097,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>瑰丽壮观、无人能及的冒险之旅。</t>
+          <t>凝视卑弱生命，用电影改变命运。</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>何以为家</t>
+          <t>少年派的奇幻漂流</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>624080人评价</t>
+          <t>1029182人评价</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>凝视卑弱生命，用电影改变命运。</t>
+          <t>瑰丽壮观、无人能及的冒险之旅。</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>935509人评价</t>
+          <t>961010人评价</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>315663人评价</t>
+          <t>326392人评价</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>431758人评价</t>
+          <t>442938人评价</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>593685人评价</t>
+          <t>609861人评价</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1214,22 +1214,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>大话西游之月光宝盒</t>
+          <t>素媛</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>839704人评价</t>
+          <t>446321人评价</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>旷古烁今。</t>
+          <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>680365人评价</t>
+          <t>701741人评价</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1258,22 +1258,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>素媛</t>
+          <t>大话西游之月光宝盒</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>427597人评价</t>
+          <t>865990人评价</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
+          <t>旷古烁今。</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>468602人评价</t>
+          <t>476803人评价</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>685597人评价</t>
+          <t>704338人评价</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>595066人评价</t>
+          <t>612636人评价</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>424560人评价</t>
+          <t>438771人评价</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1368,12 +1368,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>搏击俱乐部</t>
+          <t>哈利·波特与魔法石</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>620226人评价</t>
+          <t>668240人评价</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1383,19 +1383,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>邪恶与平庸蛰伏于同一个母体，在特定的时间互相对峙。</t>
+          <t>童话世界的开端。</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>哈利·波特与魔法石</t>
+          <t>我不是药神</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>637316人评价</t>
+          <t>1500409人评价</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>童话世界的开端。</t>
+          <t>对我们国家而言，这样的电影多一部是一部。</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>我不是药神</t>
+          <t>搏击俱乐部</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1456374人评价</t>
+          <t>633062人评价</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>对我们国家而言，这样的电影多一部是一部。</t>
+          <t>邪恶与平庸蛰伏于同一个母体，在特定的时间互相对峙。</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>487611人评价</t>
+          <t>500628人评价</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>358744人评价</t>
+          <t>370245人评价</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1478,88 +1478,88 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>狮子王</t>
+          <t>指环王2：双塔奇兵</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>554844人评价</t>
+          <t>495540人评价</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>动物版《哈姆雷特》。</t>
+          <t>承前启后的史诗篇章。</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>指环王2：双塔奇兵</t>
+          <t>狮子王</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>480695人评价</t>
+          <t>574887人评价</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>承前启后的史诗篇章。</t>
+          <t>动物版《哈姆雷特》。</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>窃听风暴</t>
+          <t>大闹天宫</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>401115人评价</t>
+          <t>274940人评价</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>别样人生。</t>
+          <t>经典之作，历久弥新。</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>大闹天宫</t>
+          <t>窃听风暴</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>262338人评价</t>
+          <t>411681人评价</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>经典之作，历久弥新。</t>
+          <t>别样人生。</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>541085人评价</t>
+          <t>557689人评价</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1588,78 +1588,78 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>两杆大烟枪</t>
+          <t>猫鼠游戏</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>426865人评价</t>
+          <t>573433人评价</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4个臭皮匠顶个诸葛亮，盖·里奇果然不是盖的。</t>
+          <t xml:space="preserve">骗子大师和执著警探的你追我跑故事。 </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>美丽心灵</t>
+          <t>两杆大烟枪</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>528619人评价</t>
+          <t>439703人评价</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>爱是一切逻辑和原由。</t>
+          <t>4个臭皮匠顶个诸葛亮，盖·里奇果然不是盖的。</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>饮食男女</t>
+          <t>美丽心灵</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>393070人评价</t>
+          <t>542922人评价</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>人生不能像做菜，把所有的料都准备好了才下锅。</t>
+          <t>爱是一切逻辑和原由。</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>飞越疯人院</t>
+          <t>饮食男女</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>423398人评价</t>
+          <t>406408人评价</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1669,29 +1669,29 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>自由万岁。</t>
+          <t>人生不能像做菜，把所有的料都准备好了才下锅。</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>猫鼠游戏</t>
+          <t>钢琴家</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>545216人评价</t>
+          <t>371667人评价</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">骗子大师和执著警探的你追我跑故事。 </t>
+          <t>音乐能化解仇恨。</t>
         </is>
       </c>
     </row>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>539290人评价</t>
+          <t>557808人评价</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1720,44 +1720,44 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>V字仇杀队</t>
+          <t>飞越疯人院</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>744562人评价</t>
+          <t>431659人评价</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>一张面具背后的理想与革命。</t>
+          <t>自由万岁。</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>钢琴家</t>
+          <t>V字仇杀队</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>354846人评价</t>
+          <t>761321人评价</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>音乐能化解仇恨。</t>
+          <t>一张面具背后的理想与革命。</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>690390人评价</t>
+          <t>708692人评价</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>805476人评价</t>
+          <t>834926人评价</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1121695人评价</t>
+          <t>1153378人评价</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>677830人评价</t>
+          <t>697201人评价</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1852,66 +1852,66 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>海豚湾</t>
+          <t>小鞋子</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>280201人评价</t>
+          <t>286140人评价</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>海豚的微笑，是世界上最高明的伪装。</t>
+          <t>奔跑的孩子是天使。</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>小鞋子</t>
+          <t>拯救大兵瑞恩</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>276472人评价</t>
+          <t>458805人评价</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>奔跑的孩子是天使。</t>
+          <t>美利坚精神输出大片No1.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>拯救大兵瑞恩</t>
+          <t>海豚湾</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>446492人评价</t>
+          <t>285482人评价</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>美利坚精神输出大片No1.</t>
+          <t>海豚的微笑，是世界上最高明的伪装。</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>635254人评价</t>
+          <t>650847人评价</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1940,132 +1940,132 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>穿条纹睡衣的男孩</t>
+          <t>绿皮书</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>340409人评价</t>
+          <t>1080384人评价</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。</t>
+          <t>去除成见，需要勇气。</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>音乐之声</t>
+          <t>穿条纹睡衣的男孩</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>414071人评价</t>
+          <t>353917人评价</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>用音乐化解仇恨，让歌声串起美好。</t>
+          <t>尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>美国往事</t>
+          <t>音乐之声</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>293699人评价</t>
+          <t>426409人评价</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>往事如烟，无处祭奠。</t>
+          <t>用音乐化解仇恨，让歌声串起美好。</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>绿皮书</t>
+          <t>海蒂和爷爷</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1035397人评价</t>
+          <t>273951人评价</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>去除成见，需要勇气。</t>
+          <t>如果生活中有什么使你感到快乐，那就去做吧！不要管别人说什么。</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>致命魔术</t>
+          <t>美国往事</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>590611人评价</t>
+          <t>301091人评价</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>孪生蝙蝠侠大战克隆金刚狼。</t>
+          <t>往事如烟，无处祭奠。</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>海蒂和爷爷</t>
+          <t>致命魔术</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>247313人评价</t>
+          <t>607623人评价</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>如果生活中有什么使你感到快乐，那就去做吧！不要管别人说什么。</t>
+          <t>孪生蝙蝠侠大战克隆金刚狼。</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>586240人评价</t>
+          <t>600318人评价</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>687553人评价</t>
+          <t>703188人评价</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>584224人评价</t>
+          <t>601142人评价</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>649608人评价</t>
+          <t>667279人评价</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2160,34 +2160,34 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>春光乍泄</t>
+          <t>禁闭岛</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>438435人评价</t>
+          <t>669664人评价</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>爱情纠缠，男女一致。</t>
+          <t>昔日翩翩少年，今日大腹便便。</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>被嫌弃的松子的一生</t>
+          <t>春光乍泄</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>525037人评价</t>
+          <t>450874人评价</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2197,73 +2197,73 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>以戏谑来戏谑戏谑。</t>
+          <t>爱情纠缠，男女一致。</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>禁闭岛</t>
+          <t>心灵捕手</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>648742人评价</t>
+          <t>498591人评价</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>昔日翩翩少年，今日大腹便便。</t>
+          <t>人生中应该拥有这样的一段豁然开朗。</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>心灵捕手</t>
+          <t>布达佩斯大饭店</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>485124人评价</t>
+          <t>632657人评价</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>人生中应该拥有这样的一段豁然开朗。</t>
+          <t>小清新的故事里注入了大历史的情怀。</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>布达佩斯大饭店</t>
+          <t>被嫌弃的松子的一生</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>614261人评价</t>
+          <t>537939人评价</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>小清新的故事里注入了大历史的情怀。</t>
+          <t>以戏谑来戏谑戏谑。</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>931949人评价</t>
+          <t>953792人评价</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2292,66 +2292,66 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>剪刀手爱德华</t>
+          <t>摩登时代</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>788352人评价</t>
+          <t>199076人评价</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>浪漫忧郁的成人童话。</t>
+          <t>大时代中的人生，小人物的悲喜。</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>勇敢的心</t>
+          <t>剪刀手爱德华</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>437371人评价</t>
+          <t>806841人评价</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>史诗大片的典范。</t>
+          <t>浪漫忧郁的成人童话。</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>摩登时代</t>
+          <t>勇敢的心</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>191945人评价</t>
+          <t>445362人评价</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>大时代中的人生，小人物的悲喜。</t>
+          <t>史诗大片的典范。</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>754735人评价</t>
+          <t>770888人评价</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>647178人评价</t>
+          <t>670221人评价</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2402,44 +2402,44 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>加勒比海盗</t>
+          <t>致命ID</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>617626人评价</t>
+          <t>563310人评价</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>约翰尼·德普的独角戏。</t>
+          <t>最不可能的那个人永远是最可能的。</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>致命ID</t>
+          <t>加勒比海盗</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>543059人评价</t>
+          <t>633597人评价</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>最不可能的那个人永远是最可能的。</t>
+          <t>约翰尼·德普的独角戏。</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>523714人评价</t>
+          <t>536263人评价</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>448773人评价</t>
+          <t>465271人评价</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2490,78 +2490,78 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>幽灵公主</t>
+          <t>狩猎</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>384906人评价</t>
+          <t>253367人评价</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>人与自然的战争史诗。</t>
+          <t>人言可畏。</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>狩猎</t>
+          <t>哈利·波特与死亡圣器(下)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>241794人评价</t>
+          <t>533663人评价</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>人言可畏。</t>
+          <t>10年的完美句点。</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>阳光灿烂的日子</t>
+          <t>请以你的名字呼唤我</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>441921人评价</t>
+          <t>451667人评价</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>一场华丽的意淫。</t>
+          <t>沉醉在电影的情感和视听氛围中无法自拔。</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>请以你的名字呼唤我</t>
+          <t>幽灵公主</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>430202人评价</t>
+          <t>393867人评价</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2571,19 +2571,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>沉醉在电影的情感和视听氛围中无法自拔。</t>
+          <t>人与自然的战争史诗。</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>入殓师</t>
+          <t>阳光灿烂的日子</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>443122人评价</t>
+          <t>452523人评价</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2593,95 +2593,95 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>死可能是一道门，逝去并不是终结，而是超越，走向下一程。</t>
+          <t>一场华丽的意淫。</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>哈利·波特与死亡圣器(下)</t>
+          <t>小森林 夏秋篇</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>514185人评价</t>
+          <t>299249人评价</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>10年的完美句点。</t>
+          <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>重庆森林</t>
+          <t>入殓师</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>556106人评价</t>
+          <t>449529人评价</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>寂寞没有期限。</t>
+          <t>死可能是一道门，逝去并不是终结，而是超越，走向下一程。</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>第六感</t>
+          <t>重庆森林</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>380318人评价</t>
+          <t>571698人评价</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>深入内心的恐怖，出人意料的结局。</t>
+          <t>寂寞没有期限。</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>小森林 夏秋篇</t>
+          <t>第六感</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>286470人评价</t>
+          <t>390099人评价</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
+          <t>深入内心的恐怖，出人意料的结局。</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>354791人评价</t>
+          <t>369992人评价</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>625645人评价</t>
+          <t>641829人评价</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>266743人评价</t>
+          <t>276891人评价</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2754,66 +2754,66 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>爱在黎明破晓前</t>
+          <t>小森林 冬春篇</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>407895人评价</t>
+          <t>263927人评价</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>缘分是个连绵词，最美不过一瞬。</t>
+          <t>尊敬他人，尊敬你生活的这片土地，明白孤独是人生的常态。</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>小森林 冬春篇</t>
+          <t>爱在黎明破晓前</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>252701人评价</t>
+          <t>424133人评价</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>尊敬他人，尊敬你生活的这片土地，明白孤独是人生的常态。</t>
+          <t>缘分是个连绵词，最美不过一瞬。</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>玛丽和马克思</t>
+          <t>一一</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>325710人评价</t>
+          <t>252981人评价</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>你是我最好的朋友，你是我唯一的朋友 。</t>
+          <t>我们都曾经是一一。</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>315085人评价</t>
+          <t>326811人评价</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2842,88 +2842,88 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>一一</t>
+          <t>唐伯虎点秋香</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>243716人评价</t>
+          <t>726067人评价</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>我们都曾经是一一。</t>
+          <t>华太师是黄霑，吴镇宇四大才子之一。</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>告白</t>
+          <t>玛丽和马克思</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>526815人评价</t>
+          <t>332009人评价</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>没有一人完全善，也没有一人完全恶。</t>
+          <t>你是我最好的朋友，你是我唯一的朋友 。</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>唐伯虎点秋香</t>
+          <t>超脱</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>700219人评价</t>
+          <t>332215人评价</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>华太师是黄霑，吴镇宇四大才子之一。</t>
+          <t>穷尽一生，我们要学会的，不过是彼此拥抱。</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>大鱼</t>
+          <t>倩女幽魂</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>410435人评价</t>
+          <t>514462人评价</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>抱着梦想而活着的人是幸福的，怀抱梦想而死去的人是不朽的。</t>
+          <t xml:space="preserve">两张绝世的脸。 </t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>498329人评价</t>
+          <t>510483人评价</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2952,198 +2952,198 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>阳光姐妹淘</t>
+          <t>告白</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>446225人评价</t>
+          <t>536640人评价</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve">再多各自牛逼的时光，也比不上一起傻逼的岁月。 </t>
+          <t>没有一人完全善，也没有一人完全恶。</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>倩女幽魂</t>
+          <t>大鱼</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>495629人评价</t>
+          <t>421616人评价</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve">两张绝世的脸。 </t>
+          <t>抱着梦想而活着的人是幸福的，怀抱梦想而死去的人是不朽的。</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>超脱</t>
+          <t>阳光姐妹淘</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>316472人评价</t>
+          <t>457144人评价</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>穷尽一生，我们要学会的，不过是彼此拥抱。</t>
+          <t xml:space="preserve">再多各自牛逼的时光，也比不上一起傻逼的岁月。 </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>射雕英雄传之东成西就</t>
+          <t>甜蜜蜜</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>456714人评价</t>
+          <t>372687人评价</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve">百看不厌。 </t>
+          <t>相逢只要一瞬间，等待却像是一辈子。</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>甜蜜蜜</t>
+          <t>射雕英雄传之东成西就</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>359471人评价</t>
+          <t>469079人评价</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>相逢只要一瞬间，等待却像是一辈子。</t>
+          <t xml:space="preserve">百看不厌。 </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>驯龙高手</t>
+          <t>萤火之森</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>530452人评价</t>
+          <t>352532人评价</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>和谐的生活离不开摸头与被摸头。</t>
+          <t>触不到的恋人。</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>萤火之森</t>
+          <t>驯龙高手</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>338298人评价</t>
+          <t>545707人评价</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>触不到的恋人。</t>
+          <t>和谐的生活离不开摸头与被摸头。</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>超能陆战队</t>
+          <t>无人知晓</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>685797人评价</t>
+          <t>193616人评价</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Balalala~~~</t>
+          <t>我的平常生活就是他人的幸福。</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>无人知晓</t>
+          <t>超能陆战队</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>183481人评价</t>
+          <t>706314人评价</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>我的平常生活就是他人的幸福。</t>
+          <t>Balalala~~~</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>375202人评价</t>
+          <t>387726人评价</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3172,12 +3172,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>菊次郎的夏天</t>
+          <t>借东西的小人阿莉埃蒂</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>352612人评价</t>
+          <t>386211人评价</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3187,19 +3187,19 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>从没见过那么流氓的温柔，从没见过那么温柔的流氓。</t>
+          <t>曾经的那段美好会沉淀为一辈子的记忆。</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>恐怖直播</t>
+          <t>菊次郎的夏天</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>433932人评价</t>
+          <t>365833人评价</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3209,19 +3209,19 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>恐怖分子的“秋菊打官司”。</t>
+          <t>从没见过那么流氓的温柔，从没见过那么温柔的流氓。</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>借东西的小人阿莉埃蒂</t>
+          <t>爱在日落黄昏时</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>373931人评价</t>
+          <t>360078人评价</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3231,19 +3231,19 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>曾经的那段美好会沉淀为一辈子的记忆。</t>
+          <t>九年后的重逢是世俗和责任的交叠，没了悸动和青涩，沧桑而温暖。</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>爱在日落黄昏时</t>
+          <t>恐怖直播</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>347760人评价</t>
+          <t>450333人评价</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3253,51 +3253,51 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>九年后的重逢是世俗和责任的交叠，没了悸动和青涩，沧桑而温暖。</t>
+          <t>恐怖分子的“秋菊打官司”。</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>神偷奶爸</t>
+          <t>完美的世界</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>686260人评价</t>
+          <t>181089人评价</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Mr. I Don't Care其实也有Care的时候。</t>
+          <t>坏人的好总是比好人的好来得更感人。</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>完美的世界</t>
+          <t>神偷奶爸</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>171351人评价</t>
+          <t>704205人评价</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>坏人的好总是比好人的好来得更感人。</t>
+          <t>Mr. I Don't Care其实也有Care的时候。</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>446342人评价</t>
+          <t>460390人评价</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>346441人评价</t>
+          <t>357197人评价</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3348,110 +3348,110 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>风之谷</t>
+          <t>功夫</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>275670人评价</t>
+          <t>673550人评价</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>动画片的圣经。</t>
+          <t>警恶惩奸，维护世界和平这个任务就交给你了，好吗？</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>血战钢锯岭</t>
+          <t>人生果实</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>564849人评价</t>
+          <t>95308人评价</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.5</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
+          <t>土壤没有落叶不会肥沃，没有了你就不算人生。</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>傲慢与偏见</t>
+          <t>血战钢锯岭</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>526985人评价</t>
+          <t>578144人评价</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>爱是摈弃傲慢与偏见之后的曙光。</t>
+          <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>上帝之城</t>
+          <t>傲慢与偏见</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>225725人评价</t>
+          <t>546793人评价</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>被上帝抛弃了的上帝之城。</t>
+          <t>爱是摈弃傲慢与偏见之后的曙光。</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>功夫</t>
+          <t>风之谷</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>644075人评价</t>
+          <t>281098人评价</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>警恶惩奸，维护世界和平这个任务就交给你了，好吗？</t>
+          <t>动画片的圣经。</t>
         </is>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>379077人评价</t>
+          <t>393491人评价</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>238491人评价</t>
+          <t>246631人评价</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3502,198 +3502,198 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>电锯惊魂</t>
+          <t>上帝之城</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>347412人评价</t>
+          <t>230416人评价</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>真相就在眼前。</t>
+          <t>被上帝抛弃了的上帝之城。</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>喜宴</t>
+          <t>天书奇谭</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>234093人评价</t>
+          <t>146832人评价</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>中国家庭的喜怒哀乐忍。</t>
+          <t>传奇的年代，醉人的童话。</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>谍影重重3</t>
+          <t>电锯惊魂</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>301525人评价</t>
+          <t>356950人评价</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>像吃了苏打饼一样干脆的电影。</t>
+          <t>真相就在眼前。</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>英雄本色</t>
+          <t>喜宴</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>346056人评价</t>
+          <t>240433人评价</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t xml:space="preserve">英雄泪短，兄弟情长。 </t>
+          <t>中国家庭的喜怒哀乐忍。</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>天书奇谭</t>
+          <t>英雄本色</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>138312人评价</t>
+          <t>358844人评价</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>传奇的年代，醉人的童话。</t>
+          <t xml:space="preserve">英雄泪短，兄弟情长。 </t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>人生果实</t>
+          <t>被解救的姜戈</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>85716人评价</t>
+          <t>437707人评价</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>土壤没有落叶不会肥沃，没有了你就不算人生。</t>
+          <t>热血沸腾，那个低俗、性感的无耻混蛋又来了。</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>岁月神偷</t>
+          <t>谍影重重3</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>448190人评价</t>
+          <t>308441人评价</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>岁月流逝，来日可追。</t>
+          <t>像吃了苏打饼一样干脆的电影。</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>被解救的姜戈</t>
+          <t>七武士</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>427070人评价</t>
+          <t>134259人评价</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>热血沸腾，那个低俗、性感的无耻混蛋又来了。</t>
+          <t>时代悲歌。</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>七武士</t>
+          <t>岁月神偷</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>129979人评价</t>
+          <t>458387人评价</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>时代悲歌。</t>
+          <t>岁月流逝，来日可追。</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>168942人评价</t>
+          <t>175033人评价</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>206562人评价</t>
+          <t>215297人评价</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3744,12 +3744,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>疯狂原始人</t>
+          <t>头号玩家</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>606407人评价</t>
+          <t>1014413人评价</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3759,41 +3759,41 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>老少皆宜，这就是好莱坞动画的魅力。</t>
+          <t>写给影迷，动漫迷和游戏迷的一封情书。</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>纵横四海</t>
+          <t>釜山行</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>280450人评价</t>
+          <t>802823人评价</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>香港浪漫主义警匪动作片的巅峰之作。</t>
+          <t>揭露人性的丧尸题材力作。</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>三块广告牌</t>
+          <t>疯狂原始人</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>592000人评价</t>
+          <t>620252人评价</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3803,41 +3803,41 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>怼天怼地，你走后，她与世界为敌。</t>
+          <t>老少皆宜，这就是好莱坞动画的魅力。</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>头号玩家</t>
+          <t>纵横四海</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>989811人评价</t>
+          <t>289948人评价</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>写给影迷，动漫迷和游戏迷的一封情书。</t>
+          <t>香港浪漫主义警匪动作片的巅峰之作。</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>心迷宫</t>
+          <t>三块广告牌</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>338954人评价</t>
+          <t>606023人评价</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3847,19 +3847,19 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>荒诞讽刺，千奇百巧，抽丝剥茧，百转千回。</t>
+          <t>怼天怼地，你走后，她与世界为敌。</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>萤火虫之墓</t>
+          <t>心迷宫</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>313968人评价</t>
+          <t>349440人评价</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3869,117 +3869,117 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve">幸福是生生不息，却难以触及的远。 </t>
+          <t>荒诞讽刺，千奇百巧，抽丝剥茧，百转千回。</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>真爱至上</t>
+          <t>达拉斯买家俱乐部</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>511804人评价</t>
+          <t>324082人评价</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>爱，是个动词。</t>
+          <t>Jared Leto的腿比女人还美！</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>达拉斯买家俱乐部</t>
+          <t>萤火虫之墓</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>315479人评价</t>
+          <t>320701人评价</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Jared Leto的腿比女人还美！</t>
+          <t xml:space="preserve">幸福是生生不息，却难以触及的远。 </t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>釜山行</t>
+          <t>哈利·波特与阿兹卡班的囚徒</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>773863人评价</t>
+          <t>395371人评价</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>揭露人性的丧尸题材力作。</t>
+          <t>不一样的导演，不一样的哈利·波特。</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>荒蛮故事</t>
+          <t>真爱至上</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>287358人评价</t>
+          <t>523761人评价</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>始于荒诞，止于更荒诞。</t>
+          <t>爱，是个动词。</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>东邪西毒</t>
+          <t>荒蛮故事</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>425011人评价</t>
+          <t>299051人评价</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>电影诗。</t>
+          <t>始于荒诞，止于更荒诞。</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>560073人评价</t>
+          <t>573081人评价</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4008,12 +4008,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>记忆碎片</t>
+          <t>东邪西毒</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>430900人评价</t>
+          <t>435549人评价</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4023,41 +4023,41 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>一个针管引发的血案。</t>
+          <t>电影诗。</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>爆裂鼓手</t>
+          <t>你的名字。</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>386543人评价</t>
+          <t>983741人评价</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>这个世界从不善待努力的人，努力了也不一定会成功，但是知道自己在努力，就是活下去的动力。</t>
+          <t>穿越错位的时空，仰望陨落的星辰，你没留下你的名字，我却无法忘记那句“我爱你”。</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>黑天鹅</t>
+          <t>记忆碎片</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>623122人评价</t>
+          <t>440618人评价</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4067,129 +4067,129 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>黑暗之美。</t>
+          <t>一个针管引发的血案。</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>你的名字。</t>
+          <t>卢旺达饭店</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>952370人评价</t>
+          <t>210113人评价</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>穿越错位的时空，仰望陨落的星辰，你没留下你的名字，我却无法忘记那句“我爱你”。</t>
+          <t>当这个世界闭上双眼，他却敞开了怀抱。</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>花样年华</t>
+          <t>爆裂鼓手</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>395777人评价</t>
+          <t>397572人评价</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>偷情本没有这样美。</t>
+          <t>这个世界从不善待努力的人，努力了也不一定会成功，但是知道自己在努力，就是活下去的动力。</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>卢旺达饭店</t>
+          <t>花样年华</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>200607人评价</t>
+          <t>406677人评价</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>当这个世界闭上双眼，他却敞开了怀抱。</t>
+          <t>偷情本没有这样美。</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>忠犬八公物语</t>
+          <t>黑天鹅</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>127353人评价</t>
+          <t>634072人评价</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>养狗三日，便会对你终其一生。</t>
+          <t>黑暗之美。</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>哈利·波特与阿兹卡班的囚徒</t>
+          <t>忠犬八公物语</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>375624人评价</t>
+          <t>132045人评价</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>不一样的导演，不一样的哈利·波特。</t>
+          <t>养狗三日，便会对你终其一生。</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>头脑特工队</t>
+          <t>黑客帝国3：矩阵革命</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>407570人评价</t>
+          <t>298111人评价</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4199,19 +4199,19 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>愿我们都不用长大，每一座城堡都能永远存在。</t>
+          <t>不得不说，《黑客帝国》系列是商业片与科幻、哲学完美结合的典范。</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>黑客帝国3：矩阵革命</t>
+          <t>模仿游戏</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>287493人评价</t>
+          <t>433630人评价</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4221,73 +4221,73 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>不得不说，《黑客帝国》系列是商业片与科幻、哲学完美结合的典范。</t>
+          <t>他给机器起名“克里斯托弗”，因为这是他初恋的名字。</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>模仿游戏</t>
+          <t>一个叫欧维的男人决定去死</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>421843人评价</t>
+          <t>262568人评价</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>他给机器起名“克里斯托弗”，因为这是他初恋的名字。</t>
+          <t>惠及一生的美丽。</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>一个叫欧维的男人决定去死</t>
+          <t>头脑特工队</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>250701人评价</t>
+          <t>418445人评价</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>惠及一生的美丽。</t>
+          <t>愿我们都不用长大，每一座城堡都能永远存在。</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>雨人</t>
+          <t>哈利·波特与密室</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>303009人评价</t>
+          <t>414334人评价</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>生活在自己的世界里，也可以让周围的人显得可笑和渺小。</t>
+          <t>魔法的密室之门已打开...</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>241058人评价</t>
+          <t>247613人评价</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4316,12 +4316,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>无敌破坏王</t>
+          <t>雨人</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>371057人评价</t>
+          <t>308608人评价</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>迪士尼和皮克斯拿错剧本的产物。</t>
+          <t>生活在自己的世界里，也可以让周围的人显得可笑和渺小。</t>
         </is>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>181532人评价</t>
+          <t>187559人评价</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4360,56 +4360,56 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>恋恋笔记本</t>
+          <t>无敌破坏王</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>460649人评价</t>
+          <t>381497人评价</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t xml:space="preserve">爱情没有那么多借口，如果不能圆满，只能说明爱的不够。 </t>
+          <t>迪士尼和皮克斯拿错剧本的产物。</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>冰川时代</t>
+          <t>新世界</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>446032人评价</t>
+          <t>233376人评价</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>松鼠才是角儿。</t>
+          <t>要做就做得狠一点，这样才能活下去。</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>哈利·波特与密室</t>
+          <t>冰川时代</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>394640人评价</t>
+          <t>457427人评价</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4419,41 +4419,41 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>魔法的密室之门已打开...</t>
+          <t>松鼠才是角儿。</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>海街日记</t>
+          <t>恋恋笔记本</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>269782人评价</t>
+          <t>475302人评价</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>是枝裕和的家庭习作。</t>
+          <t xml:space="preserve">爱情没有那么多借口，如果不能圆满，只能说明爱的不够。 </t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>新世界</t>
+          <t>海街日记</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>220512人评价</t>
+          <t>281911人评价</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4463,73 +4463,73 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>要做就做得狠一点，这样才能活下去。</t>
+          <t>是枝裕和的家庭习作。</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>海边的曼彻斯特</t>
+          <t>二十二</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>345309人评价</t>
+          <t>213708人评价</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>我们都有权利不与自己的过去和解。</t>
+          <t>有一些东西不应该被遗忘。</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>二十二</t>
+          <t>海边的曼彻斯特</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>207958人评价</t>
+          <t>353961人评价</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>有一些东西不应该被遗忘。</t>
+          <t>我们都有权利不与自己的过去和解。</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>虎口脱险</t>
+          <t>惊魂记</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>165457人评价</t>
+          <t>165443人评价</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>永远看不腻的喜剧。</t>
+          <t>故事的反转与反转，分裂电影的始祖。</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>277680人评价</t>
+          <t>287192人评价</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4558,56 +4558,56 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>恐怖游轮</t>
+          <t>虎口脱险</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>550848人评价</t>
+          <t>170194人评价</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>不要企图在重复中寻找已经失去的爱。</t>
+          <t>永远看不腻的喜剧。</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>惊魂记</t>
+          <t>恐怖游轮</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>158321人评价</t>
+          <t>566970人评价</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>故事的反转与反转，分裂电影的始祖。</t>
+          <t>不要企图在重复中寻找已经失去的爱。</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>人工智能</t>
+          <t>奇迹男孩</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>307014人评价</t>
+          <t>415811人评价</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4617,41 +4617,41 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>对爱的执着，可以超越一切。</t>
+          <t>世界不完美，爱会有奇迹。</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>雨中曲</t>
+          <t>魔女宅急便</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>144415人评价</t>
+          <t>335835人评价</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>骨灰级歌舞片。</t>
+          <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>魔女宅急便</t>
+          <t>人工智能</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>326898人评价</t>
+          <t>315937人评价</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4661,29 +4661,29 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
+          <t>对爱的执着，可以超越一切。</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>奇迹男孩</t>
+          <t>雨中曲</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>404214人评价</t>
+          <t>148013人评价</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>世界不完美，爱会有奇迹。</t>
+          <t>骨灰级歌舞片。</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>557604人评价</t>
+          <t>574128人评价</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4712,56 +4712,56 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>罗生门</t>
+          <t>小偷家族</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>212545人评价</t>
+          <t>586447人评价</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>人生的N种可能性。</t>
+          <t>我们组成了家。</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>海洋</t>
+          <t>爱在午夜降临前</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>128129人评价</t>
+          <t>229691人评价</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>大海啊，不全是水。</t>
+          <t>所谓爱情，就是话唠一路，都不会心生腻烦，彼此嫌弃。</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>爱在午夜降临前</t>
+          <t>绿里奇迹</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>218407人评价</t>
+          <t>197978人评价</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4771,139 +4771,139 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>所谓爱情，就是话唠一路，都不会心生腻烦，彼此嫌弃。</t>
+          <t>天使暂时离开。</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>终结者2：审判日</t>
+          <t>罗生门</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>245872人评价</t>
+          <t>219360人评价</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>少见的超越首部的续集，动作片中的经典。</t>
+          <t>人生的N种可能性。</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>燃情岁月</t>
+          <t>终结者2：审判日</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>210467人评价</t>
+          <t>252822人评价</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>传奇，不是每个人都可以拥有。</t>
+          <t>少见的超越首部的续集，动作片中的经典。</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>魂断蓝桥</t>
+          <t>海洋</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>193951人评价</t>
+          <t>130220人评价</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>中国式内在的美国电影。</t>
+          <t>大海啊，不全是水。</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>小偷家族</t>
+          <t>初恋这件小事</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>567865人评价</t>
+          <t>762771人评价</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>我们组成了家。</t>
+          <t>黑小鸭速效美白记。</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>初恋这件小事</t>
+          <t>魂断蓝桥</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>745395人评价</t>
+          <t>199861人评价</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>黑小鸭速效美白记。</t>
+          <t>中国式内在的美国电影。</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>穿越时空的少女</t>
+          <t>燃情岁月</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>288864人评价</t>
+          <t>214756人评价</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t xml:space="preserve">爱上未来的你。 </t>
+          <t>传奇，不是每个人都可以拥有。</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>203753人评价</t>
+          <t>209557人评价</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4932,12 +4932,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>绿里奇迹</t>
+          <t>2001太空漫游</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>185591人评价</t>
+          <t>200741人评价</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4947,195 +4947,195 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>天使暂时离开。</t>
+          <t>现代科幻电影的开山之作，最伟大导演的最伟大影片。</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2001太空漫游</t>
+          <t>穿越时空的少女</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>193576人评价</t>
+          <t>295490人评价</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>现代科幻电影的开山之作，最伟大导演的最伟大影片。</t>
+          <t xml:space="preserve">爱上未来的你。 </t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>完美陌生人</t>
+          <t>牯岭街少年杀人事件</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>392436人评价</t>
+          <t>184365人评价</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>来啊，互相伤害啊！</t>
+          <t>弱者送给弱者的一刀。</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>牯岭街少年杀人事件</t>
+          <t>城市之光</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>178324人评价</t>
+          <t>89355人评价</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>9.3</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>弱者送给弱者的一刀。</t>
+          <t>永远的小人物，伟大的卓别林。</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>无耻混蛋</t>
+          <t>完美陌生人</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>345424人评价</t>
+          <t>402401人评价</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
+          <t>来啊，互相伤害啊！</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>阿飞正传</t>
+          <t>无耻混蛋</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>349997人评价</t>
+          <t>352713人评价</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>王家卫是一种风格，张国荣是一个代表。</t>
+          <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>城市之光</t>
+          <t>新龙门客栈</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>85205人评价</t>
+          <t>317585人评价</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>永远的小人物，伟大的卓别林。</t>
+          <t>嬉笑怒骂，调风动月。</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>新龙门客栈</t>
+          <t>源代码</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>309530人评价</t>
+          <t>605357人评价</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>嬉笑怒骂，调风动月。</t>
+          <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>源代码</t>
+          <t>阿飞正传</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>593124人评价</t>
+          <t>359750人评价</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
+          <t>王家卫是一种风格，张国荣是一个代表。</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>香水</t>
+          <t>青蛇</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>411438人评价</t>
+          <t>367684人评价</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5145,41 +5145,41 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>一个单凭体香达到高潮的男人。</t>
+          <t>人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>谍影重重2</t>
+          <t>色，戒</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>254665人评价</t>
+          <t>484055人评价</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>谁说王家卫镜头很晃？</t>
+          <t>假戏真情，爱欲深海</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>青蛇</t>
+          <t>香水</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>356501人评价</t>
+          <t>419959人评价</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -5189,107 +5189,107 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。</t>
+          <t>一个单凭体香达到高潮的男人。</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>谍影重重</t>
+          <t>谍影重重2</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>304427人评价</t>
+          <t>260522人评价</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。</t>
+          <t>谁说王家卫镜头很晃？</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>地球上的星星</t>
+          <t>遗愿清单</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>145505人评价</t>
+          <t>266306人评价</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>天使保护事件始末。</t>
+          <t>用剩余不多的时间，去燃烧整个生命。</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>战争之王</t>
+          <t>地球上的星星</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>256487人评价</t>
+          <t>150160人评价</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>做一颗让别人需要你的棋子。</t>
+          <t>天使保护事件始末。</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>猜火车</t>
+          <t>血钻</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>334567人评价</t>
+          <t>254612人评价</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t xml:space="preserve">不可猜的青春迷笛。 </t>
+          <t>每个美丽事物背后都是滴血的现实。</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>血钻</t>
+          <t>战争之王</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>246027人评价</t>
+          <t>261553人评价</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -5299,85 +5299,85 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>每个美丽事物背后都是滴血的现实。</t>
+          <t>做一颗让别人需要你的棋子。</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>色，戒</t>
+          <t>谍影重重</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>466687人评价</t>
+          <t>311287人评价</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>假戏真情，爱欲深海</t>
+          <t>哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>遗愿清单</t>
+          <t>大佛普拉斯</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>254201人评价</t>
+          <t>273860人评价</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>用剩余不多的时间，去燃烧整个生命。</t>
+          <t>人们可以登上月球，却永远无法探索人们内心的宇宙。</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>大佛普拉斯</t>
+          <t>猜火车</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>261166人评价</t>
+          <t>339309人评价</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>人们可以登上月球，却永远无法探索人们内心的宇宙。</t>
+          <t xml:space="preserve">不可猜的青春迷笛。 </t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>朗读者</t>
+          <t>疯狂的麦克斯4：狂暴之路</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>364766人评价</t>
+          <t>368643人评价</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5387,29 +5387,29 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t xml:space="preserve">当爱情跨越年龄的界限，它似乎能变得更久远一点，成为一种责任，一种水到渠成的相濡以沫。 </t>
+          <t>“多么美好的一天！”轰轰轰砰咚，啪哒哒哒轰隆隆，磅~</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>浪潮</t>
+          <t>彗星来的那一夜</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>198810人评价</t>
+          <t>360961人评价</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>世界离独裁只有五天。</t>
+          <t>小成本大魅力。</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>174747人评价</t>
+          <t>181383人评价</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5438,44 +5438,44 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>彗星来的那一夜</t>
+          <t>朗读者</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>347885人评价</t>
+          <t>370386人评价</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>小成本大魅力。</t>
+          <t xml:space="preserve">当爱情跨越年龄的界限，它似乎能变得更久远一点，成为一种责任，一种水到渠成的相濡以沫。 </t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>疯狂的麦克斯4：狂暴之路</t>
+          <t>浪潮</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>358291人评价</t>
+          <t>203838人评价</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>“多么美好的一天！”轰轰轰砰咚，啪哒哒哒轰隆隆，磅~</t>
+          <t>世界离独裁只有五天。</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>343721人评价</t>
+          <t>355847人评价</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>294060人评价</t>
+          <t>303828人评价</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5526,22 +5526,22 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>聚焦</t>
+          <t>九品芝麻官</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>203829人评价</t>
+          <t>382211人评价</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>新闻人的理性求真。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>642868人评价</t>
+          <t>662929人评价</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>88271人评价</t>
+          <t>91461人评价</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5592,176 +5592,176 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>追随</t>
+          <t>聚焦</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>128022人评价</t>
+          <t>209081人评价</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>诺兰的牛逼来源于内心散发出的恐惧。</t>
+          <t>新闻人的理性求真。</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>一次别离</t>
+          <t>哈利·波特与火焰杯</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>192441人评价</t>
+          <t>351421人评价</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>只有有信仰的人才能说出事实真相。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>我爱你</t>
+          <t>追随</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>105820人评价</t>
+          <t>132143人评价</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t xml:space="preserve">你要相信，这世上真的有爱存在，不管在什么年纪 </t>
+          <t>诺兰的牛逼来源于内心散发出的恐惧。</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>千钧一发</t>
+          <t>一次别离</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>166707人评价</t>
+          <t>196511人评价</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>一部能引人思考的科幻励志片。</t>
+          <t>只有有信仰的人才能说出事实真相。</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>黑鹰坠落</t>
+          <t>千钧一发</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>203575人评价</t>
+          <t>174507人评价</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>8.7</t>
+          <t>8.8</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>还原真实而残酷的战争。</t>
+          <t>一部能引人思考的科幻励志片。</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>九品芝麻官</t>
+          <t>我爱你</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>358407人评价</t>
+          <t>110383人评价</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>无</t>
+          <t xml:space="preserve">你要相信，这世上真的有爱存在，不管在什么年纪 </t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>四个春天</t>
+          <t>黑鹰坠落</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>114102人评价</t>
+          <t>209906人评价</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>来也匆匆去也匆匆，就这样风雨兼程。</t>
+          <t>还原真实而残酷的战争。</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>发条橙</t>
+          <t>波西米亚狂想曲</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>274697人评价</t>
+          <t>409079人评价</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>我完全康复了。</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>369923人评价</t>
+          <t>382171人评价</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5790,56 +5790,56 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>E.T. 外星人</t>
+          <t>四个春天</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>252134人评价</t>
+          <t>118601人评价</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>8.9</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>生病的E.T.皮肤的颜色就像柿子饼。</t>
+          <t>来也匆匆去也匆匆，就这样风雨兼程。</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>哈利·波特与火焰杯</t>
+          <t>发条橙</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>332391人评价</t>
+          <t>280594人评价</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>8.6</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>我完全康复了。</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>撞车</t>
+          <t>E.T. 外星人</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>246114人评价</t>
+          <t>259693人评价</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>天使与魔鬼的冲撞。</t>
+          <t>生病的E.T.皮肤的颜色就像柿子饼。</t>
         </is>
       </c>
     </row>
